--- a/final.xlsx
+++ b/final.xlsx
@@ -375,69 +375,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>序号</v>
+      </c>
+      <c r="B1" t="str">
         <v>名字</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>在建项目数量</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>链接</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>姓名</v>
-      </c>
-      <c r="B2" t="str">
-        <v>链接</v>
-      </c>
-      <c r="C2" t="str">
-        <v>地址</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>李琨</v>
-      </c>
-      <c r="B3" t="str">
-        <v>链接</v>
-      </c>
-      <c r="C3" t="str">
-        <v>http://202.61.88.188/xmgk/Person/rZsxx.aspx?id=1203035F41DD25A3A08097D962470F09F01E7B37C03DFCFC</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>杨淑娟</v>
-      </c>
-      <c r="B4" t="str">
-        <v>链接</v>
-      </c>
-      <c r="C4" t="str">
-        <v>http://202.61.88.188/xmgk/Person/rZsxx.aspx?id=1A92BDDDAFB66F335C65EDDC590ADE277F44D8BC811914F4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>舒宗兴</v>
-      </c>
-      <c r="B5" t="str">
-        <v>链接</v>
-      </c>
-      <c r="C5" t="str">
-        <v>http://202.61.88.188/xmgk/Person/rZsxx.aspx?id=96EA9968FDDE386A9AF924320636F69226C1A422EBB20FEC</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
   </ignoredErrors>
 </worksheet>
 </file>